--- a/03 项目管理/02 问题管理/VFlow问题清单.xlsx
+++ b/03 项目管理/02 问题管理/VFlow问题清单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3B963A05-3488-4918-8524-0E71B53A500B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74A8EB0F-22A7-4CA6-8E60-F7F73150643B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data view" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>未完成</t>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,6 +184,12 @@
   <si>
     <t>图形设置中的颜色：1、给出默认值；2、给出修改规则，如16进制值等</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>进行中</t>
   </si>
 </sst>
 </file>
@@ -687,24 +690,24 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="7" customWidth="1"/>
     <col min="2" max="2" width="11" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="7" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" style="7"/>
     <col min="6" max="6" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="7"/>
-    <col min="10" max="10" width="25.58203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="7" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -736,21 +739,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="9">
         <v>43207</v>
@@ -760,25 +763,25 @@
         <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="9">
         <v>43207</v>
@@ -788,25 +791,25 @@
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="9">
         <v>43207</v>
@@ -816,25 +819,25 @@
         <v>14</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="9">
         <v>43207</v>
@@ -846,21 +849,21 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="9">
         <v>43207</v>
@@ -870,25 +873,25 @@
         <v>11</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="9">
         <v>43207</v>
@@ -898,27 +901,27 @@
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="9">
         <v>43207</v>
@@ -928,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F9" s="9">
         <v>43207</v>
@@ -956,27 +959,27 @@
         <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F10" s="9">
         <v>43207</v>
@@ -986,25 +989,25 @@
         <v>11</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="9">
         <v>43207</v>
@@ -1014,25 +1017,25 @@
         <v>11</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F12" s="9">
         <v>43207</v>
@@ -1042,13 +1045,13 @@
         <v>11</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1076,7 +1079,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1090,7 +1093,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1104,7 +1107,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1118,7 +1121,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1202,7 +1205,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1216,7 +1219,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1230,7 +1233,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1244,7 +1247,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1258,7 +1261,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1272,7 +1275,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1286,7 +1289,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1300,7 +1303,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1328,7 +1331,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1354,7 +1357,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1366,7 +1369,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1378,7 +1381,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1390,7 +1393,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1402,7 +1405,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1414,7 +1417,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1426,7 +1429,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1438,7 +1441,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1450,7 +1453,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1462,7 +1465,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1474,7 +1477,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1486,7 +1489,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1498,7 +1501,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1510,7 +1513,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1522,7 +1525,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1534,7 +1537,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1546,7 +1549,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1558,7 +1561,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1570,7 +1573,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1582,7 +1585,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1594,7 +1597,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1606,7 +1609,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1618,7 +1621,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1630,7 +1633,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1642,7 +1645,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1654,7 +1657,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1666,7 +1669,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1678,7 +1681,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1690,7 +1693,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1702,7 +1705,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1714,7 +1717,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1726,7 +1729,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1738,7 +1741,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1750,7 +1753,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1762,7 +1765,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1774,7 +1777,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1786,7 +1789,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1798,7 +1801,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1810,7 +1813,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1822,7 +1825,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1834,7 +1837,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1846,7 +1849,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1858,7 +1861,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1870,7 +1873,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1882,7 +1885,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -1894,7 +1897,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1906,7 +1909,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1918,7 +1921,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1930,7 +1933,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1942,7 +1945,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1989,7 +1992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2002,7 +2005,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,7 +2018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,7 +2031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,7 +2044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,14 +2059,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.9140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2095,27 +2098,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
@@ -2133,7 +2136,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
